--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556147</v>
+        <v>2740177.930556146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839639</v>
+        <v>20105680.36839637</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4846652.650336143</v>
+        <v>4846652.650336144</v>
       </c>
     </row>
     <row r="11">
@@ -677,49 +677,49 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="V2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V2" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,52 +738,52 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="D3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S5" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T5" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59002526031614</v>
+        <v>2.36130568012912</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,70 +978,70 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H6" t="n">
+      <c r="S6" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36130568012912</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S8" t="n">
         <v>27.59002526031614</v>
@@ -1187,7 +1187,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23.55470292302859</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,67 +1370,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="T11" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="U11" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.361305680129117</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>27.59002526031614</v>
@@ -1579,7 +1579,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T13" t="n">
-        <v>19.72731862540289</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S14" t="n">
         <v>27.59002526031614</v>
@@ -1661,7 +1661,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U14" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="15">
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>27.59002526031614</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S17" t="n">
+      <c r="Y17" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T17" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U17" t="n">
-        <v>12.92549025883184</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.44787677172188</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2339,7 +2339,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>60.09118670082915</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,13 +2412,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>90.78668401116074</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2515,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>90.91642501047011</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.27932101827133</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="F30" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.19305615617957</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.82907102477792</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="34">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3360962888297</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="F36" t="n">
-        <v>2.267950091052419</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>200.3360962888296</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>128.2298974603009</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>78.16296192755566</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>51.85208312358959</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>229.0204371761346</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>201.7212010647393</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>229.0204371761346</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>229.0204371761346</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>27.97326886390778</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>33.1170850560613</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>229.0204371761346</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.02492433367364</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D44" t="n">
         <v>14.31059503474164</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,61 +4068,61 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.4487593605094</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C46" t="n">
         <v>27.59002526031614</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I2" t="n">
         <v>2.207202020825291</v>
@@ -4352,28 +4352,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R2" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S2" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T2" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="U2" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V2" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="W2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G3" t="n">
         <v>2.207202020825291</v>
@@ -4416,10 +4416,10 @@
         <v>55.73185102583861</v>
       </c>
       <c r="M3" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N3" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O3" t="n">
         <v>83.04597603355158</v>
@@ -4431,28 +4431,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y3" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="4">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="C5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="D5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J5" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>28.41772601812563</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L5" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M5" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P5" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S5" t="n">
-        <v>85.81333917329844</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T5" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U5" t="n">
-        <v>30.07591440498301</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="V5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="W5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="X5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="C6" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="D6" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3601010412646</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F6" t="n">
-        <v>85.81333917329844</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G6" t="n">
-        <v>57.94462678914073</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H6" t="n">
-        <v>30.07591440498301</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J6" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M6" t="n">
         <v>28.41772601812563</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>28.41772601812563</v>
+      </c>
+      <c r="O6" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="M6" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="N6" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="O6" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="P6" t="n">
         <v>83.04597603355158</v>
@@ -4668,28 +4668,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
@@ -4811,43 +4811,43 @@
         <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>72.39977328887976</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S8" t="n">
-        <v>44.53106090472204</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T8" t="n">
-        <v>16.66234852056432</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.66234852056432</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.961334673611005</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C9" t="n">
-        <v>2.961334673611005</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D9" t="n">
-        <v>2.961334673611005</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E9" t="n">
-        <v>2.961334673611005</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F9" t="n">
-        <v>2.961334673611005</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G9" t="n">
-        <v>2.961334673611005</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L9" t="n">
-        <v>55.73185102583861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M9" t="n">
-        <v>55.73185102583861</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N9" t="n">
         <v>55.73185102583861</v>
@@ -4899,34 +4899,34 @@
         <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="X9" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="Y9" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="S9" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="T9" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="U9" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="V9" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="W9" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.961334673611005</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="F10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="G10" t="n">
-        <v>24.70163820858575</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="H10" t="n">
-        <v>24.70163820858575</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="I10" t="n">
-        <v>24.70163820858575</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4978,34 +4978,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R10" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C11" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D11" t="n">
-        <v>70.01461603622408</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E11" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F11" t="n">
-        <v>42.14590365206637</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G11" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
         <v>2.207202020825291</v>
@@ -5060,31 +5060,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R11" t="n">
-        <v>97.8833284203818</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S11" t="n">
-        <v>97.8833284203818</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T11" t="n">
-        <v>97.8833284203818</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U11" t="n">
-        <v>97.8833284203818</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V11" t="n">
-        <v>97.8833284203818</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W11" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X11" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y11" t="n">
-        <v>97.8833284203818</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E12" t="n">
         <v>2.207202020825291</v>
@@ -5124,16 +5124,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L12" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="N12" t="n">
         <v>28.41772601812563</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="N12" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="O12" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="P12" t="n">
         <v>83.04597603355158</v>
@@ -5142,28 +5142,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W12" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X12" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y12" t="n">
-        <v>30.07591440498301</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="13">
@@ -5215,16 +5215,16 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.87121125924466</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R13" t="n">
-        <v>50.00249887508694</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S13" t="n">
-        <v>22.13378649092923</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T13" t="n">
         <v>2.207202020825291</v>
@@ -5282,13 +5282,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L14" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M14" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N14" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O14" t="n">
         <v>83.04597603355158</v>
@@ -5300,25 +5300,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R14" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S14" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T14" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U14" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V14" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W14" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X14" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y14" t="n">
         <v>2.207202020825291</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D15" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E15" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F15" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G15" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H15" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
         <v>2.207202020825291</v>
@@ -5361,16 +5361,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M15" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N15" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O15" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P15" t="n">
         <v>83.04597603355158</v>
@@ -5379,28 +5379,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S15" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="T15" t="n">
-        <v>26.7539638887914</v>
-      </c>
       <c r="U15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y15" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="J16" t="n">
         <v>2.207202020825291</v>
@@ -5452,34 +5452,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>50.00249887508694</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S16" t="n">
-        <v>22.13378649092923</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H17" t="n">
-        <v>15.2366994040306</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I17" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J17" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K17" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L17" t="n">
         <v>40.77139327069581</v>
@@ -5525,7 +5525,7 @@
         <v>79.95943146291799</v>
       </c>
       <c r="N17" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O17" t="n">
         <v>119.1474696551402</v>
@@ -5534,31 +5534,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R17" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T17" t="n">
-        <v>28.29275017052741</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U17" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W17" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X17" t="n">
-        <v>15.2366994040306</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.2366994040306</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I18" t="n">
         <v>3.166710156947247</v>
@@ -5598,19 +5598,19 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L18" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M18" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M18" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="N18" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q18" t="n">
         <v>158.3355078473624</v>
@@ -5625,19 +5625,19 @@
         <v>43.15042425981653</v>
       </c>
       <c r="U18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G19" t="n">
         <v>3.166710156947247</v>
@@ -5692,31 +5692,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S19" t="n">
-        <v>123.1178524655551</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T19" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U19" t="n">
-        <v>83.13413836268582</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="V19" t="n">
-        <v>43.15042425981653</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="W19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.32787816303323</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C20" t="n">
-        <v>82.32787816303323</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>569.2254314512334</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>325.7766548071333</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W20" t="n">
-        <v>325.7766548071333</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X20" t="n">
-        <v>82.32787816303323</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.32787816303323</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>495.8898722931124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>349.3553143199974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>210.6244889026129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>97.25535331019226</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N21" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O21" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>113.583345248266</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>730.8505943024719</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C23" t="n">
-        <v>730.8505943024719</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D23" t="n">
-        <v>730.8505943024719</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E23" t="n">
-        <v>730.8505943024719</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>730.8505943024719</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>396.2502477241069</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>249.7156897509919</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>110.9848643336074</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N24" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N24" t="n">
-        <v>656.0584510084244</v>
-      </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y24" t="n">
-        <v>728.9050472788936</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="25">
@@ -6163,16 +6163,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>111.1159158480613</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>930.4416797346046</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>930.4416797346046</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>930.4416797346046</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>930.4416797346046</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>930.4416797346046</v>
       </c>
       <c r="W27" t="n">
-        <v>318.9674160535941</v>
+        <v>686.9929030905046</v>
       </c>
       <c r="X27" t="n">
-        <v>111.1159158480613</v>
+        <v>479.1414028849718</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.1159158480613</v>
+        <v>271.3811041200179</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.0360370837871</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C32" t="n">
-        <v>274.0360370837871</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0360370837871</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>274.0360370837871</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W32" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X32" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0360370837871</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2696759935595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>75.41817578802664</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="34">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.6974622895962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>761.6974622895962</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.2968567456824</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C36" t="n">
-        <v>581.8438274645554</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D36" t="n">
-        <v>432.9094178033041</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E36" t="n">
-        <v>273.6719627978486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7020,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7211,13 +7211,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>327.2640844659515</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D39" t="n">
-        <v>327.2640844659515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>327.2640844659515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>327.2640844659515</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>188.533259048567</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7260,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>327.2640844659515</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.0312514384586</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="C41" t="n">
-        <v>302.0312514384586</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="D41" t="n">
-        <v>302.0312514384586</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="E41" t="n">
         <v>249.6554098994793</v>
       </c>
       <c r="F41" t="n">
-        <v>18.32163497409077</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="G41" t="n">
         <v>18.32163497409077</v>
@@ -7412,13 +7412,13 @@
         <v>18.32163497409077</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>74.32074221503734</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4124924696717</v>
+        <v>254.3965937996959</v>
       </c>
       <c r="M41" t="n">
-        <v>518.3881197325759</v>
+        <v>471.3722210626001</v>
       </c>
       <c r="N41" t="n">
         <v>677.2267432698394</v>
@@ -7433,28 +7433,28 @@
         <v>916.0817487045384</v>
       </c>
       <c r="R41" t="n">
-        <v>764.6988012892357</v>
+        <v>916.0817487045384</v>
       </c>
       <c r="S41" t="n">
-        <v>764.6988012892357</v>
+        <v>916.0817487045384</v>
       </c>
       <c r="T41" t="n">
-        <v>764.6988012892357</v>
+        <v>712.3229597502562</v>
       </c>
       <c r="U41" t="n">
-        <v>533.3650263638472</v>
+        <v>712.3229597502562</v>
       </c>
       <c r="V41" t="n">
-        <v>533.3650263638472</v>
+        <v>480.9891848248677</v>
       </c>
       <c r="W41" t="n">
-        <v>533.3650263638472</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="X41" t="n">
-        <v>533.3650263638472</v>
+        <v>249.6554098994793</v>
       </c>
       <c r="Y41" t="n">
-        <v>302.0312514384586</v>
+        <v>249.6554098994793</v>
       </c>
     </row>
     <row r="42">
@@ -7497,13 +7497,13 @@
         <v>245.051867778464</v>
       </c>
       <c r="M42" t="n">
-        <v>437.313479773485</v>
+        <v>471.7821005828373</v>
       </c>
       <c r="N42" t="n">
-        <v>437.313479773485</v>
+        <v>619.9569573868358</v>
       </c>
       <c r="O42" t="n">
-        <v>664.0437125778583</v>
+        <v>846.6871901912091</v>
       </c>
       <c r="P42" t="n">
         <v>846.6871901912091</v>
@@ -7515,25 +7515,25 @@
         <v>916.0817487045384</v>
       </c>
       <c r="S42" t="n">
-        <v>742.6644041552073</v>
+        <v>916.0817487045384</v>
       </c>
       <c r="T42" t="n">
-        <v>709.2128030884787</v>
+        <v>713.8951540633045</v>
       </c>
       <c r="U42" t="n">
-        <v>480.9891848248677</v>
+        <v>485.6715357996936</v>
       </c>
       <c r="V42" t="n">
-        <v>249.6554098994793</v>
+        <v>485.6715357996936</v>
       </c>
       <c r="W42" t="n">
-        <v>18.32163497409077</v>
+        <v>254.3377608743051</v>
       </c>
       <c r="X42" t="n">
-        <v>18.32163497409077</v>
+        <v>254.3377608743051</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.32163497409077</v>
+        <v>46.57746210935116</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>152.8539254643615</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>65.82155854345808</v>
       </c>
       <c r="R43" t="n">
-        <v>18.32163497409077</v>
+        <v>65.82155854345808</v>
       </c>
       <c r="S43" t="n">
-        <v>18.32163497409077</v>
+        <v>65.82155854345808</v>
       </c>
       <c r="T43" t="n">
-        <v>18.32163497409077</v>
+        <v>65.82155854345808</v>
       </c>
       <c r="U43" t="n">
         <v>18.32163497409077</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.66234852056432</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C44" t="n">
         <v>16.66234852056432</v>
@@ -7649,16 +7649,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K44" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L44" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M44" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N44" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O44" t="n">
         <v>110.3601010412646</v>
@@ -7685,13 +7685,13 @@
         <v>100.2684856730375</v>
       </c>
       <c r="W44" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="X44" t="n">
+        <v>100.2684856730375</v>
+      </c>
+      <c r="Y44" t="n">
         <v>72.39977328887976</v>
-      </c>
-      <c r="X44" t="n">
-        <v>72.39977328887976</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H45" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I45" t="n">
         <v>2.207202020825291</v>
@@ -7728,19 +7728,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K45" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L45" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="M45" t="n">
+        <v>29.52132702853827</v>
+      </c>
+      <c r="N45" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="N45" t="n">
-        <v>110.3601010412646</v>
-      </c>
-      <c r="O45" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="P45" t="n">
         <v>110.3601010412646</v>
@@ -7758,19 +7758,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X45" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.94716176738407</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C46" t="n">
-        <v>4.078449383226349</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D46" t="n">
-        <v>4.078449383226349</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E46" t="n">
-        <v>4.078449383226349</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T46" t="n">
-        <v>82.49138865710684</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.62267627294912</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M3" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
         <v>161.5644326746464</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N5" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q6" t="n">
         <v>167.5717993463377</v>
@@ -8459,16 +8459,16 @@
         <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,7 +8699,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615407</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O11" t="n">
         <v>257.6882366820029</v>
@@ -8772,19 +8772,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q12" t="n">
         <v>167.5717993463377</v>
@@ -8930,16 +8930,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N14" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>258.8230210155857</v>
@@ -9009,19 +9009,19 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>167.5717993463377</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M17" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>270.8168727171101</v>
@@ -9246,22 +9246,22 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>276.6546058338155</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>389.8561176746349</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,16 +11145,16 @@
         <v>367.5748169560088</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3376824018375</v>
+        <v>371.154471098153</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>281.0132846126247</v>
       </c>
       <c r="O42" t="n">
         <v>371.616681620579</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5651278099304</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L44" t="n">
         <v>263.3564402303034</v>
@@ -11306,10 +11306,10 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O44" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,22 +22592,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>223.7556276475204</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V2" t="n">
-        <v>303.4509642208484</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,19 +22626,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1184737279996</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E3" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S5" t="n">
-        <v>184.7187753369589</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T5" t="n">
         <v>195.5058243038152</v>
       </c>
       <c r="U5" t="n">
-        <v>223.7556276475204</v>
+        <v>248.9843472277074</v>
       </c>
       <c r="V5" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22866,25 +22866,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>148.1284681808092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="7">
@@ -23039,10 +23039,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>208.1145838902768</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>125.5678236918632</v>
       </c>
       <c r="S8" t="n">
         <v>181.4300443259292</v>
@@ -23075,7 +23075,7 @@
         <v>195.5058243038152</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>182.2182822804489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>145.5422199979494</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>198.9687459771361</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23258,19 +23258,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,25 +23300,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>147.5078122610206</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23400,10 +23400,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>58.57201799137825</v>
@@ -23467,7 +23467,7 @@
         <v>196.4265727766561</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2182708028786</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23540,7 +23540,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>122.2790926808335</v>
+        <v>125.5678236918632</v>
       </c>
       <c r="S14" t="n">
         <v>181.4300443259292</v>
@@ -23549,7 +23549,7 @@
         <v>195.5058243038152</v>
       </c>
       <c r="U14" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="15">
@@ -23577,10 +23577,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23592,10 +23592,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>65.84192992838649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>144.0931458435217</v>
@@ -23668,13 +23668,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S16" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>238.4201626490047</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23865,7 +23865,7 @@
         <v>160.580851732981</v>
       </c>
       <c r="U18" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23932,25 +23932,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V19" t="n">
         <v>212.5537663619874</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>279.2668867104333</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,10 +24014,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24029,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24054,22 +24054,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>12.9487560796932</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24148,7 +24148,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24184,10 +24184,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>212.3098558551328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151.8593460673979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24227,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24288,7 +24288,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>87.3538788638096</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24300,13 +24300,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>21.44876022533572</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24403,19 +24403,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24452,7 +24452,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24494,16 +24494,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24534,10 +24534,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>21.31901922602636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>66.87851313437181</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,10 +24765,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>52.90669720804131</v>
       </c>
       <c r="F30" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,10 +24920,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>345.4485756045711</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7562331984329429</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,22 +25047,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.8536247525265</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="34">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.68397329741569</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>108.4133296247714</v>
       </c>
       <c r="F36" t="n">
-        <v>142.8012623023315</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>44.47860152801482</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>34.07248230894081</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,10 +25518,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>330.0782869486722</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>186.2823003390004</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25673,28 +25673,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>21.37464849939201</v>
       </c>
       <c r="U41" t="n">
-        <v>22.32521573170189</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>98.7318212940003</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>120.2205315412784</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>157.217501479919</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>138.5599147859596</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25755,16 +25755,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>167.0476436387603</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>3.780149973290662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>22.674545984785</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,7 +25865,7 @@
         <v>355.1438164031645</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D44" t="n">
         <v>340.3724465859413</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V45" t="n">
         <v>205.2105618891091</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.3832208214279</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C46" t="n">
         <v>139.6567958383117</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>122.9722886624218</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345904.1553749649</v>
+        <v>345904.1553749648</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345904.155374965</v>
+        <v>345904.1553749648</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345904.155374965</v>
+        <v>345904.1553749649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345904.155374965</v>
+        <v>345904.1553749649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>57650.69256249412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57650.69256249412</v>
+      </c>
+      <c r="D2" t="n">
         <v>57650.69256249411</v>
       </c>
-      <c r="C2" t="n">
-        <v>57650.69256249413</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57650.69256249412</v>
-      </c>
       <c r="E2" t="n">
+        <v>57650.6925624941</v>
+      </c>
+      <c r="F2" t="n">
         <v>57650.69256249411</v>
       </c>
-      <c r="F2" t="n">
-        <v>57650.69256249413</v>
-      </c>
       <c r="G2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146599</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566619</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566618</v>
@@ -26344,13 +26344,13 @@
         <v>83080.33626566621</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>81660.69120532631</v>
+        <v>81660.69120532629</v>
       </c>
       <c r="P2" t="n">
         <v>57650.69256249411</v>
@@ -26436,16 +26436,16 @@
         <v>3448.117877250231</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="K4" t="n">
         <v>3448.11787725023</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="M4" t="n">
         <v>3448.117877250231</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10820.63931854634</v>
+        <v>10820.63931854635</v>
       </c>
       <c r="C6" t="n">
-        <v>20066.69135385928</v>
+        <v>20066.69135385927</v>
       </c>
       <c r="D6" t="n">
-        <v>20066.69135385927</v>
+        <v>20066.69135385926</v>
       </c>
       <c r="E6" t="n">
-        <v>53694.29135385926</v>
+        <v>53694.29135385925</v>
       </c>
       <c r="F6" t="n">
-        <v>53694.29135385928</v>
+        <v>53694.29135385925</v>
       </c>
       <c r="G6" t="n">
-        <v>51166.68013886119</v>
+        <v>51166.68013886117</v>
       </c>
       <c r="H6" t="n">
-        <v>10630.81161605923</v>
+        <v>10630.81161605922</v>
       </c>
       <c r="I6" t="n">
         <v>64978.54962465428</v>
@@ -26552,13 +26552,13 @@
         <v>64978.5496246543</v>
       </c>
       <c r="M6" t="n">
-        <v>64978.5496246543</v>
+        <v>64978.54962465426</v>
       </c>
       <c r="N6" t="n">
-        <v>64978.5496246543</v>
+        <v>64978.54962465428</v>
       </c>
       <c r="O6" t="n">
-        <v>64353.40240936445</v>
+        <v>64353.40240936444</v>
       </c>
       <c r="P6" t="n">
         <v>53694.29135385926</v>
@@ -34784,13 +34784,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>27.59002526031614</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N5" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>27.59002526031614</v>
@@ -35179,16 +35179,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="N8" t="n">
         <v>26.47527676494983</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>27.59002526031614</v>
@@ -35650,16 +35650,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M14" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N14" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>27.59002526031614</v>
@@ -35729,19 +35729,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>27.59002526031614</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>39.58387696184059</v>
@@ -35966,22 +35966,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="O18" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>56.56475478883492</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>160.443054078044</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,16 +37865,16 @@
         <v>229.0204371761346</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2036484798192</v>
+        <v>229.0204371761346</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>149.6715725292914</v>
       </c>
       <c r="O42" t="n">
         <v>229.0204371761346</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L44" t="n">
         <v>27.59002526031614</v>
@@ -38026,10 +38026,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N45" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354377.1110702142</v>
+        <v>376800.6061809955</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556146</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839637</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4846652.650336144</v>
+        <v>4901378.246697891</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36130568012912</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="13">
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T13" t="n">
-        <v>22.44875936050941</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2041,28 +2041,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,31 +2123,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.0376190809312</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,10 +2217,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,58 +2321,58 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>104.2801141926743</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>90.78668401116074</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
@@ -2567,61 +2567,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>60.22092770013851</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>33.27932101827133</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,55 +2710,55 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.3665114137742</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3111,16 +3111,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.583694061602047</v>
+        <v>148.5527042308418</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E36" t="n">
-        <v>49.23175083062949</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="I38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>128.2298974603009</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>201.7212010647393</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.97326886390778</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>137.3121834293393</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367364</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>24.30129424928645</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>22.44875936050941</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N2" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S2" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T2" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U2" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V2" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W2" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O3" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X3" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>80.43906297690118</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I4" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J4" t="n">
-        <v>24.70163820858575</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S5" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T5" t="n">
-        <v>16.66234852056432</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.83004705776872</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>58.69875944192644</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>58.69875944192644</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>58.69875944192644</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.83004705776872</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G7" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43906297690118</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>84.14957704396423</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T8" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.207202020825291</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="D11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="E11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="F11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H11" t="n">
-        <v>2.207202020825291</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L11" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S11" t="n">
-        <v>85.81333917329844</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T11" t="n">
-        <v>57.94462678914073</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U11" t="n">
-        <v>30.07591440498301</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V11" t="n">
-        <v>30.07591440498301</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X11" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.81333917329844</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C12" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D12" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N12" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.62014129470579</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>52.75142891054807</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S13" t="n">
-        <v>24.88271652639035</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H16" t="n">
-        <v>57.94462678914073</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I16" t="n">
-        <v>30.07591440498301</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.4888536788635</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>85.81333917329844</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="T16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.81333917329844</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C17" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D17" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E17" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F17" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G17" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H17" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M17" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X17" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y17" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F18" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G18" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N18" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>90.46354404567346</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>90.46354404567346</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U19" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>120.3292431919614</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>555.4877027295624</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="C24" t="n">
-        <v>555.4877027295624</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="D24" t="n">
-        <v>555.4877027295624</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="E24" t="n">
-        <v>396.2502477241069</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7156897509919</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>110.9848643336074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6075,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>555.4877027295624</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X24" t="n">
-        <v>555.4877027295624</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y24" t="n">
-        <v>555.4877027295624</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>930.4416797346046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>930.4416797346046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>930.4416797346046</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>930.4416797346046</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>930.4416797346046</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>686.9929030905046</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>479.1414028849718</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y27" t="n">
-        <v>271.3811041200179</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="28">
@@ -6406,28 +6406,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.0774898247174</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0774898247174</v>
+        <v>420.3155137812691</v>
       </c>
       <c r="D30" t="n">
-        <v>125.0774898247174</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>125.0774898247174</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.0774898247174</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="31">
@@ -6655,13 +6655,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>787.171420448546</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6786,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6816,13 +6816,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>955.386757468614</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>243.4632136343998</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>69.01018435327282</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>69.01018435327282</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>411.6785506544679</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7117,22 +7117,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.4948343740486</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C39" t="n">
-        <v>168.9696854242497</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="D41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="E41" t="n">
-        <v>249.6554098994793</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6554098994793</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>74.32074221503734</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>712.3229597502562</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>712.3229597502562</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>480.9891848248677</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y41" t="n">
-        <v>249.6554098994793</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.32163497409077</v>
+        <v>157.6164546579724</v>
       </c>
       <c r="C42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.32163497409077</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>245.051867778464</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>471.7821005828373</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>619.9569573868358</v>
+        <v>642.3680818020865</v>
       </c>
       <c r="O42" t="n">
-        <v>846.6871901912091</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>916.0817487045384</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>713.8951540633045</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="U42" t="n">
-        <v>485.6715357996936</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="V42" t="n">
-        <v>485.6715357996936</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="W42" t="n">
-        <v>254.3377608743051</v>
+        <v>533.5920904429944</v>
       </c>
       <c r="X42" t="n">
-        <v>254.3377608743051</v>
+        <v>533.5920904429944</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.57746210935116</v>
+        <v>325.8317916780405</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.82155854345808</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>65.82155854345808</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="S43" t="n">
-        <v>65.82155854345808</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>65.82155854345808</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.53106090472204</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>84.14957704396423</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N44" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W44" t="n">
-        <v>100.2684856730375</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X44" t="n">
-        <v>100.2684856730375</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N45" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W45" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C46" t="n">
-        <v>52.75142891054807</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D46" t="n">
-        <v>52.75142891054807</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E46" t="n">
-        <v>24.88271652639035</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>255.8883403615407</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869682</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615408</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9483,19 +9483,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6546058338155</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>362.790769105007</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>371.154471098153</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>281.0132846126247</v>
+        <v>165.7142402382929</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11385,16 +11385,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>351.3724598280644</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C3" t="n">
-        <v>148.4072047390293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>248.9843472277074</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,10 +22863,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>148.1284681808092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>125.5678236918632</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>223.7556276475204</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23109,13 +23109,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>87.93414998721002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>185.6011099569616</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>184.7187753369589</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C12" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,13 +23352,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>147.3818768545514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="13">
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
-        <v>196.4265727766561</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T13" t="n">
-        <v>205.4968300677721</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,13 +23540,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>125.5678236918632</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23577,16 +23577,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>123.1437713153523</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E15" t="n">
-        <v>130.0550551950848</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23622,10 +23622,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>154.8446320166601</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>199.4461012748567</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
-        <v>175.6104107424167</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81275588957449</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23929,28 +23929,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V19" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>279.2668867104333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,10 +23969,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24060,10 +24060,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>12.1978251555653</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,10 +24105,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2863534910952</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,16 +24291,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>40.78909820070955</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>21.44876022533572</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24333,13 +24333,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>77.12258946307213</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>66.87851313437181</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24759,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>40.34198757454152</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>52.90669720804131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>345.4485756045711</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,16 +24959,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24999,16 +24999,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>197.0990017157023</v>
+        <v>57.12999154646258</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.9439654637738</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25199,13 +25199,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E36" t="n">
-        <v>108.4133296247714</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>44.47860152801482</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>60.25392578661718</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>186.2823003390004</v>
+        <v>178.836744054864</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>131.1955550759606</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>21.37464849939201</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>98.7318212940003</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>120.2205315412784</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.5599147859596</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>35.39631555897648</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>355.1438164031645</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>340.3724465859413</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,19 +25995,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U45" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>181.471690954191</v>
+        <v>171.6540977017462</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>122.9722886624218</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345904.1553749648</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345904.1553749648</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345904.1553749648</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345904.1553749649</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345904.1553749649</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>489964.1472319579</v>
+        <v>495251.8800453865</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345904.1553749649</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146599</v>
       </c>
       <c r="C2" t="n">
-        <v>57650.69256249412</v>
+        <v>59211.39971146599</v>
       </c>
       <c r="D2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146603</v>
       </c>
       <c r="E2" t="n">
-        <v>57650.6925624941</v>
+        <v>59211.39971146603</v>
       </c>
       <c r="F2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
       <c r="G2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="L2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="O2" t="n">
-        <v>81660.69120532629</v>
+        <v>82541.98000756433</v>
       </c>
       <c r="P2" t="n">
-        <v>57650.69256249411</v>
+        <v>59211.39971146602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="C4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="D4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="E4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="F4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="G4" t="n">
-        <v>2350.685009712585</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3382.846215652875</v>
+        <v>176.2367752791008</v>
       </c>
       <c r="P4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10820.63931854635</v>
+        <v>9878.22133129881</v>
       </c>
       <c r="C6" t="n">
-        <v>20066.69135385927</v>
+        <v>23143.68893038172</v>
       </c>
       <c r="D6" t="n">
-        <v>20066.69135385926</v>
+        <v>23143.68893038176</v>
       </c>
       <c r="E6" t="n">
-        <v>53694.29135385925</v>
+        <v>56771.28893038176</v>
       </c>
       <c r="F6" t="n">
-        <v>53694.29135385925</v>
+        <v>56771.28893038175</v>
       </c>
       <c r="G6" t="n">
-        <v>51166.68013886117</v>
+        <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>10630.81161605922</v>
+        <v>15126.56803387554</v>
       </c>
       <c r="I6" t="n">
-        <v>64978.54962465428</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="J6" t="n">
-        <v>57759.78505544412</v>
+        <v>57890.25110039672</v>
       </c>
       <c r="K6" t="n">
-        <v>64978.54962465428</v>
+        <v>68247.13500420051</v>
       </c>
       <c r="L6" t="n">
-        <v>64978.5496246543</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="M6" t="n">
-        <v>64978.54962465426</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>64978.54962465428</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="O6" t="n">
-        <v>64353.40240936444</v>
+        <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>53694.29135385926</v>
+        <v>56771.28893038175</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37631,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.56475478883492</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>132.6925576833202</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>149.6715725292914</v>
+        <v>34.37252815495957</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>38.12502610536669</v>
+        <v>62.13484214871502</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2172,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,10 +2219,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,70 +2320,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>124.0808356869336</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>104.2801141926743</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>153.1812591032981</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>60.22092770013851</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,14 +2791,14 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2871,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.3665114137742</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2889,10 +2891,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>148.5527042308418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,64 +3198,64 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,16 +3350,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>120.9298661881966</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>71.62389627899309</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3366,7 +3368,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3588,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.1427070647979</v>
+        <v>63.55607497997151</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3121834293393</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="45">
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>159.7234650087802</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T8" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M9" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X9" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D11" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E11" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F11" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G11" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>81.54278654139161</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F15" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H16" t="n">
-        <v>25.66114634470771</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.66114634470771</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,13 +5773,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>120.3292431919614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5926,34 +5928,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.6145917896818</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C24" t="n">
-        <v>124.6145917896818</v>
+        <v>144.6153205717618</v>
       </c>
       <c r="D24" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>292.8299288097498</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y24" t="n">
-        <v>292.8299288097498</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
         <v>829.5248650203655</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>284.5332603973924</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C27" t="n">
-        <v>284.5332603973924</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D27" t="n">
-        <v>284.5332603973924</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E27" t="n">
-        <v>284.5332603973924</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F27" t="n">
-        <v>284.5332603973924</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>284.5332603973924</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
         <v>829.5248650203655</v>
@@ -6406,28 +6408,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6497,10 +6499,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
         <v>720.6083788665362</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>554.0190606638694</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>420.3155137812691</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D30" t="n">
-        <v>271.3811041200179</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>271.3811041200179</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>554.0190606638694</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.0190606638694</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6645,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
         <v>506.1786963984129</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
         <v>829.5248650203655</v>
@@ -6901,7 +6903,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6976,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>444.9858201382948</v>
       </c>
       <c r="D36" t="n">
-        <v>667.4527462414319</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="E36" t="n">
-        <v>508.2152912359765</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>296.0514104770435</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="E39" t="n">
-        <v>49.47235360622864</v>
+        <v>368.744582036037</v>
       </c>
       <c r="F39" t="n">
-        <v>49.47235360622864</v>
+        <v>222.210024062922</v>
       </c>
       <c r="G39" t="n">
-        <v>49.47235360622864</v>
+        <v>83.47919864553748</v>
       </c>
       <c r="H39" t="n">
-        <v>49.47235360622864</v>
+        <v>83.47919864553748</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945.8639738410842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>945.8639738410842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>945.8639738410842</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>707.0094349923255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>468.1548961435668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>945.8639738410842</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6164546579724</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>533.5920904429944</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X42" t="n">
-        <v>533.5920904429944</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8317916780405</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>3.920842809732961</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>78.36807964162378</v>
+        <v>701.5507927213197</v>
       </c>
       <c r="V45" t="n">
-        <v>38.38436553875449</v>
+        <v>466.398684489577</v>
       </c>
       <c r="W45" t="n">
-        <v>38.38436553875449</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.920842809732961</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8219,19 +8221,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -9966,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>362.790769105007</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>165.7142402382929</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22592,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22756,16 +22758,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23066,16 +23068,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>216.4801740798473</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>185.6011099569616</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H12" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>334.8656218504798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23577,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>112.5795867366496</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>51.27160674604839</v>
+        <v>27.26179070270006</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24022,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24060,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>12.1978251555653</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>23.3642298777052</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>40.78909820070955</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>19.52723988501768</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>77.12258946307213</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24737,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24759,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>40.34198757454152</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24777,10 +24779,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.12999154646258</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>65.71962088421755</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25254,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25293,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1400950999471</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25476,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>60.25392578661718</v>
+        <v>25.84055787144357</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25527,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4643766119907</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>131.1955550759606</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.39631555897648</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>166.3812553200274</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25831,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="45">
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>66.21791707219464</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>171.6540977017462</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453865</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566616</v>
       </c>
       <c r="J2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="K2" t="n">
-        <v>83080.33626566615</v>
-      </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.98000756433</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146602</v>
+        <v>83080.33626566618</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436363</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.22133129881</v>
+        <v>8639.0900678338</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038172</v>
+        <v>23428.79607207804</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038176</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038176</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038175</v>
+        <v>57056.39607207803</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372822</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387554</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420052</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039672</v>
+        <v>56700.21689420968</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420051</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="M6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990075</v>
+        <v>20867.25678673675</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038175</v>
+        <v>68247.13500420054</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>169.9091475161415</v>
-      </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>132.6925576833202</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>34.37252815495957</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782365</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.13217237922859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44.13217237922859</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.87161743162455</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>38.87161743162455</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>162.4417619616646</v>
       </c>
     </row>
     <row r="7">
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="12">
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>68.84126413866902</v>
       </c>
     </row>
     <row r="16">
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>108.3856149073918</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>62.13484214871502</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>170.2070188132667</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,11 +2320,11 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>124.0808356869336</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>10.12143868769103</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>200.3360962888297</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>153.1812591032981</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0.932773150644291</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3040,61 +3040,61 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,64 +3274,64 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>89.1445057997343</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>71.62389627899309</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.55607497997151</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,67 +3748,67 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>85.31372784089217</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,65 +3976,65 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>121.7911906719549</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4079,7 +4079,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>159.7234650087802</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.2644294849704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.2644294849704</v>
+        <v>310.6614854603483</v>
       </c>
       <c r="C3" t="n">
-        <v>92.68647758675968</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="D3" t="n">
-        <v>48.10852568854899</v>
+        <v>136.2084561792213</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.2644294849704</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X6" t="n">
-        <v>92.68647758675968</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>42.79483382228227</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>92.68647758675968</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>89.14698820604177</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>131.9507376187037</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>87.37278572049297</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>42.79483382228227</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.5286895169144</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C15" t="n">
-        <v>176.5286895169144</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E15" t="n">
-        <v>87.37278572049297</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F15" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>128.7615622085883</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5630,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,19 +5773,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>416.5269346905088</v>
       </c>
     </row>
     <row r="22">
@@ -5928,13 +5928,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>319.0683498528888</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C24" t="n">
-        <v>144.6153205717618</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="Y24" t="n">
-        <v>487.2836868729568</v>
+        <v>725.6098618049132</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6791,37 +6791,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>933.9571464551993</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E35" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>325.7766548071333</v>
+      </c>
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>619.4388494194218</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C36" t="n">
-        <v>444.9858201382948</v>
+        <v>110.0802311162654</v>
       </c>
       <c r="D36" t="n">
-        <v>296.0514104770435</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>296.0514104770435</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>296.0514104770435</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>619.4388494194218</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y36" t="n">
-        <v>619.4388494194218</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>527.9820370414925</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C39" t="n">
-        <v>527.9820370414925</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D39" t="n">
-        <v>527.9820370414925</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E39" t="n">
-        <v>368.744582036037</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>222.210024062922</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>83.47919864553748</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>83.47919864553748</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7289,16 +7289,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>527.9820370414925</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>527.9820370414925</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.9060370580465</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>877.8816728430684</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>877.8816728430684</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>670.1213740781145</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7599,13 +7599,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y44" t="n">
-        <v>761.6974622895962</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F45" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>701.5507927213197</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>466.398684489577</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>222.9499078454769</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>174.6270615612551</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>113.5129080761724</v>
+        <v>41.8870405170825</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.8110783456798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22758,16 +22758,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3908259573624</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>166.9013677718529</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>43.24093381563975</v>
       </c>
     </row>
     <row r="7">
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>343.0587526406372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="12">
@@ -23342,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>136.8414316386354</v>
       </c>
     </row>
     <row r="16">
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>49.25946554800912</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>27.26179070270006</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>62.5935683361586</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24168,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>93.55107118671071</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24290,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>23.3642298777052</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>222.6791484617342</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24417,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>8.68397329741569</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>19.52723988501768</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.5122924139945</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>352.8864698128427</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>58.30055976490445</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>65.71962088421755</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>227.1458758085334</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>25.84055787144357</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25529,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25590,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>166.3812553200274</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>280.3956145707916</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>23.278021721429</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>66.21791707219464</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535965</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566624</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="H2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
@@ -26349,7 +26349,7 @@
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.0900678338</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207804</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416013</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207803</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372822</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420968</v>
+        <v>-7030.818214946154</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673675</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>43.28534947792182</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761547</v>
+        <v>362272.9485238821</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562066</v>
+        <v>5116643.000488905</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>162.4417619616646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>220.2131257424249</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
-        <v>135.4141600157168</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
-        <v>29.88929839105575</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>68.84126413866902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>108.3856149073918</v>
+        <v>104.0508854668113</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2128,7 +2128,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.42556848774752</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>170.2070188132667</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>18.23903973000353</v>
       </c>
     </row>
     <row r="22">
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2320,20 +2320,20 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>10.12143868769103</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2611,7 +2611,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>16.62553367015321</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.932773150644291</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="31">
@@ -2952,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3088,13 +3088,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>62.4162677022923</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="D36" t="n">
-        <v>89.1445057997343</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3423,58 +3423,58 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.64124924790686</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -4033,10 +4033,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,19 +4067,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>121.7911906719549</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>90.90725545139041</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.6614854603483</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>136.2084561792213</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>136.2084561792213</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>761.8705608694022</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="W3" t="n">
-        <v>518.4217842253022</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X3" t="n">
-        <v>518.4217842253022</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y3" t="n">
-        <v>310.6614854603483</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>812.6742080953335</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>391.2152311558108</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>183.363730950278</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.7186438601369</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>485.167420504237</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.7186438601369</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T14" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U14" t="n">
-        <v>728.6161971483371</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>728.6161971483371</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>314.750110744579</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>314.750110744579</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>165.8157010833278</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>165.8157010833278</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>314.750110744579</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5545,19 +5545,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
         <v>506.1786963984129</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7615622085883</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>277.6959718698396</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5697,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>248.3115976704407</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>416.5269346905088</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>416.5269346905088</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>416.5269346905088</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y21" t="n">
-        <v>416.5269346905088</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="22">
@@ -5934,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>557.3945247848451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>382.9414955037181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>725.6098618049132</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>725.6098618049132</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>725.6098618049132</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>725.6098618049132</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6183,16 +6183,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6408,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>291.8877337080889</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6551,7 +6551,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6581,13 +6581,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>333.7844730889342</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V32" t="n">
-        <v>90.33569644483418</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6806,22 +6806,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
         <v>19.28114311021272</v>
@@ -6885,16 +6885,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>569.2254314512334</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.5332603973924</v>
+        <v>172.8414173495843</v>
       </c>
       <c r="C36" t="n">
-        <v>110.0802311162654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y36" t="n">
-        <v>284.5332603973924</v>
+        <v>172.8414173495843</v>
       </c>
     </row>
     <row r="37">
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F38" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C39" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y39" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="40">
@@ -7359,16 +7359,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W41" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>225.0492861822236</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>78.51472820910854</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7502,7 +7502,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="43">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V44" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W44" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X44" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.6530896684844</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>485.4562706347935</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7827,31 +7827,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>174.6270615612551</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,13 +9248,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>41.8870405170825</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>194.6755610440586</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22752,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.24093381563975</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22947,13 +22947,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -22998,19 +22998,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>161.7172443298368</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
-        <v>70.35882518776063</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,10 +23226,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.0248129136286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
-        <v>175.8836868124217</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23463,19 +23463,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>134.469915878258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23545,22 +23545,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,13 +23579,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>136.8414316386354</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23700,22 +23700,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,10 +23743,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23785,13 +23785,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>49.25946554800912</v>
+        <v>53.59419498858963</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24028,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>275.3266899823874</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>62.5935683361586</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>187.4436560473008</v>
       </c>
     </row>
     <row r="22">
@@ -24174,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24302,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>222.6791484617342</v>
+        <v>50.10013888409014</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>257.4082506688596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24764,10 +24764,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>146.5122924139945</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>114.7662707668344</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>352.8864698128427</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,10 +25235,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>20.68382749133787</v>
       </c>
       <c r="D36" t="n">
-        <v>58.30055976490445</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>227.1458758085334</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25478,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>67.1422986804247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>160.5020493654335</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25648,7 +25648,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.4807660112426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>53.59419498858961</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>280.3956145707916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25955,19 +25955,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>23.278021721429</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939976</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939973</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="C2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="D2" t="n">
-        <v>83080.33626566621</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="E2" t="n">
-        <v>83080.33626566624</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="F2" t="n">
-        <v>83080.33626566618</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566621</v>
@@ -26337,25 +26337,25 @@
         <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="N2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566615</v>
       </c>
       <c r="O2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566622</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929086</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.52438416007</v>
+        <v>21973.95667417331</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417331</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416013</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417332</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.1243841601</v>
+        <v>13062.8990417242</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946154</v>
+        <v>55478.41583220557</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.12438416007</v>
+        <v>19645.45572473271</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219654</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O42" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O42" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
